--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail9 Features.xlsx
@@ -5388,7 +5388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5399,29 +5399,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5442,115 +5440,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5567,72 +5555,66 @@
         <v>2.42634300436977e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.106737413327854</v>
+        <v>1.481977080928939e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.094378153299928</v>
+        <v>2.619241644377192e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.481977080928939e-06</v>
+        <v>0.09665082170785327</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.619241644377192e-06</v>
+        <v>0.2707410028406735</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09665082170785327</v>
+        <v>0.08252393548409863</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2707410028406735</v>
+        <v>1.472249965418797</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08252393548409863</v>
+        <v>1.389599968431178</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.381216948922571</v>
+        <v>3.78834092697523</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.389599968431178</v>
+        <v>1.847395685596429e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.78834092697523</v>
+        <v>11439561.06790234</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.847395685596429e-14</v>
+        <v>8.707809311458204e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11439561.06790234</v>
+        <v>2.417567713910861</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.707809311458204e-06</v>
+        <v>0.0001839620602886713</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.417567713910861</v>
+        <v>8.65081379391224</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001839620602886713</v>
+        <v>1.470139715514838</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.65081379391224</v>
+        <v>0.01376709131242202</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.470139715514838</v>
+        <v>2.692791374578477</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01376709131242202</v>
+        <v>0.9383366755344953</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.692791374578477</v>
+        <v>1.89488963304437</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9383366755344953</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.89488963304437</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.131927017532775</v>
       </c>
     </row>
@@ -5647,72 +5629,66 @@
         <v>2.015216223603837e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.561959717965255</v>
+        <v>1.189109999294152e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.896918117141753</v>
+        <v>2.640163220717556e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.189109999294152e-06</v>
+        <v>0.09257054478631487</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.640163220717556e-06</v>
+        <v>0.2753040066350669</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09257054478631487</v>
+        <v>0.08425661482790285</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2753040066350669</v>
+        <v>1.481973965874327</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08425661482790285</v>
+        <v>1.430240972506649</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.390560293404162</v>
+        <v>3.744913702775159</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.430240972506649</v>
+        <v>1.890490103052854e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.744913702775159</v>
+        <v>11238336.78781238</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.890490103052854e-14</v>
+        <v>8.920025124664758e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>11238336.78781238</v>
+        <v>2.387693041197397</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.920025124664758e-06</v>
+        <v>0.000192637893749881</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.387693041197397</v>
+        <v>9.313097360897647</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000192637893749881</v>
+        <v>1.416325771648948</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.313097360897647</v>
+        <v>0.01670821316881394</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.416325771648948</v>
+        <v>2.645409010067166</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01670821316881394</v>
+        <v>0.9375525976802433</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.645409010067166</v>
+        <v>1.890387767367623</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9375525976802433</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.890387767367623</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1270784438383427</v>
       </c>
     </row>
@@ -5727,72 +5703,66 @@
         <v>1.728505672470929e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.977456373730601</v>
+        <v>9.606323628052522e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.621920106664962</v>
+        <v>2.656918124382014e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.606323628052522e-07</v>
+        <v>0.08704714591142552</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.656918124382014e-06</v>
+        <v>0.2790440780160617</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08704714591142552</v>
+        <v>0.08535330343747646</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2790440780160617</v>
+        <v>1.480017286100205</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08535330343747646</v>
+        <v>1.458858793577923</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.388247215139635</v>
+        <v>3.727220726434633</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.458858793577923</v>
+        <v>1.90848087326231e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.727220726434633</v>
+        <v>10888090.26737607</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.90848087326231e-14</v>
+        <v>9.108450470415891e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10888090.26737607</v>
+        <v>2.262513802217041</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.108450470415891e-06</v>
+        <v>0.0001822518548429679</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.262513802217041</v>
+        <v>11.01113629462917</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001822518548429679</v>
+        <v>1.107734475724831</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.01113629462917</v>
+        <v>0.02209714846608737</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.107734475724831</v>
+        <v>2.469001587217149</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02209714846608737</v>
+        <v>0.9364697520307463</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.469001587217149</v>
+        <v>1.906803745036972</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9364697520307463</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.906803745036972</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1382095405807576</v>
       </c>
     </row>
@@ -5807,72 +5777,66 @@
         <v>1.541826948513964e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.481460826077391</v>
+        <v>7.745707307449516e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.2050925029137591</v>
+        <v>2.67049984117263e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.745707307449516e-07</v>
+        <v>0.07945609031445706</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.67049984117263e-06</v>
+        <v>0.2774084393879527</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07945609031445706</v>
+        <v>0.08318691297507393</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2774084393879527</v>
+        <v>1.493470144261567</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08318691297507393</v>
+        <v>1.414417677742124</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.399184719808199</v>
+        <v>3.681199317118246</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.414417677742124</v>
+        <v>1.956497832960352e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.681199317118246</v>
+        <v>10785274.37524033</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.956497832960352e-14</v>
+        <v>9.273380650314091e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10785274.37524033</v>
+        <v>2.275840213880437</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.273380650314091e-06</v>
+        <v>0.0001797123434069746</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.275840213880437</v>
+        <v>11.14415736726516</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001797123434069746</v>
+        <v>1.085996940141237</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.14415736726516</v>
+        <v>0.02231887909912244</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.085996940141237</v>
+        <v>2.377720149552509</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02231887909912244</v>
+        <v>0.9382900545353872</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.377720149552509</v>
+        <v>1.892174376579042</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9382900545353872</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.892174376579042</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1449224577148823</v>
       </c>
     </row>
@@ -5887,72 +5851,66 @@
         <v>1.438923965220114e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2013344041940168</v>
+        <v>6.120717028906578e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.139418819277097</v>
+        <v>2.681591455770924e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.120717028906578e-07</v>
+        <v>0.0697971008044548</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.681591455770924e-06</v>
+        <v>0.2649078900803356</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0697971008044548</v>
+        <v>0.07497039248767735</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2649078900803356</v>
+        <v>1.479169662752432</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07497039248767735</v>
+        <v>1.376018787516774</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.384458619042739</v>
+        <v>3.605865341063925</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.376018787516774</v>
+        <v>2.039102365049628e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.605865341063925</v>
+        <v>10147016.86066823</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.039102365049628e-14</v>
+        <v>9.74135207565504e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>10147016.86066823</v>
+        <v>2.099499581422689</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.74135207565504e-06</v>
+        <v>0.0001720813415030683</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.099499581422689</v>
+        <v>9.789118910041426</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001720813415030683</v>
+        <v>1.180029186722548</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.789118910041426</v>
+        <v>0.01649001273394286</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.180029186722548</v>
+        <v>2.591241138548261</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01649001273394286</v>
+        <v>0.9370084895608799</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.591241138548261</v>
+        <v>1.890792901747874</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9370084895608799</v>
+        <v>2</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.890792901747874</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1430412901903858</v>
       </c>
     </row>
@@ -5967,72 +5925,66 @@
         <v>1.404324112784852e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1320724990226924</v>
+        <v>4.920225717779701e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.332257589901012</v>
+        <v>2.690694513729958e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.920225717779701e-07</v>
+        <v>0.05846350274540927</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.690694513729958e-06</v>
+        <v>0.2418819190837212</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05846350274540927</v>
+        <v>0.06186011608240108</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2418819190837212</v>
+        <v>1.407131337725097</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06186011608240108</v>
+        <v>1.370722431775965</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.323055614462384</v>
+        <v>3.557225832326965</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.370722431775965</v>
+        <v>2.095246683252539e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.557225832326965</v>
+        <v>10922451.59867325</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.095246683252539e-14</v>
+        <v>8.387654573629575e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>10922451.59867325</v>
+        <v>2.499628222980577</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.387654573629575e-06</v>
+        <v>0.0001784497775954755</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.499628222980577</v>
+        <v>8.616406426477523</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001784497775954755</v>
+        <v>1.443220013818028</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.616406426477523</v>
+        <v>0.01324855042272014</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.443220013818028</v>
+        <v>2.718300006506783</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01324855042272014</v>
+        <v>0.9278771912672816</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.718300006506783</v>
+        <v>1.898170532905189</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9278771912672816</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.898170532905189</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1361535662324577</v>
       </c>
     </row>
@@ -6409,7 +6361,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.217420190122117</v>
+        <v>1.227363123962993</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.190799456335368</v>
@@ -6498,7 +6450,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.213927818549259</v>
+        <v>1.219543931342983</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.20350938503746</v>
@@ -6587,7 +6539,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.208958555774272</v>
+        <v>1.222405348717934</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.221616593780929</v>
@@ -6676,7 +6628,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.210467055772976</v>
+        <v>1.223713314538227</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.230957322543828</v>
@@ -6765,7 +6717,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.192333519729097</v>
+        <v>1.201717552314172</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.841578153955639</v>
@@ -6854,7 +6806,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.189075540540029</v>
+        <v>1.194745738984251</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.825601569762058</v>
@@ -6943,7 +6895,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.1811250891148</v>
+        <v>1.191573360591369</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.831717177502105</v>
@@ -7032,7 +6984,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.170730035197189</v>
+        <v>1.183140823563398</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.814240219916016</v>
@@ -7121,7 +7073,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.173837095941504</v>
+        <v>1.186385536528393</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.807508216574583</v>
@@ -7210,7 +7162,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.171354658885726</v>
+        <v>1.182879905524573</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.826096302578709</v>
@@ -7299,7 +7251,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.168942905094978</v>
+        <v>1.179342342462017</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.777487287434253</v>
@@ -7388,7 +7340,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.177176877164593</v>
+        <v>1.186351357965402</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.836770167166792</v>
@@ -7477,7 +7429,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.190906436537617</v>
+        <v>1.197937144344427</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.730298273024808</v>
@@ -7566,7 +7518,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.198213786831319</v>
+        <v>1.208754097401883</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.759099563736701</v>
@@ -7655,7 +7607,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.207151076141535</v>
+        <v>1.214629796327958</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.79420708912523</v>
@@ -7744,7 +7696,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.223305620958137</v>
+        <v>1.234659749237105</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.798288655293168</v>
@@ -7833,7 +7785,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.247431016405519</v>
+        <v>1.257004829699262</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.700827359124385</v>
@@ -7922,7 +7874,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.250169998085519</v>
+        <v>1.257608985467804</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.75037864646648</v>
@@ -8011,7 +7963,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.264044531157694</v>
+        <v>1.268877860115789</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.714501535255022</v>
@@ -8100,7 +8052,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.33112351341862</v>
+        <v>1.337128273154465</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.080393511321485</v>
@@ -8189,7 +8141,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.341068910741387</v>
+        <v>1.348967250622295</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.848601563429935</v>
@@ -8278,7 +8230,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.373188499762896</v>
+        <v>1.37182901254457</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.881908752722012</v>
@@ -8367,7 +8319,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.369157162003127</v>
+        <v>1.369509935708308</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.989973354483328</v>
@@ -8456,7 +8408,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.39193132401941</v>
+        <v>1.391736170008377</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.970563610166839</v>
@@ -8545,7 +8497,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.397318055788874</v>
+        <v>1.396604170766026</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.056812764692018</v>
@@ -8634,7 +8586,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.451713208808402</v>
+        <v>1.44672947954382</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.14060491093822</v>
@@ -8723,7 +8675,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.460896487333221</v>
+        <v>1.454508961892373</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.033625617557322</v>
@@ -8812,7 +8764,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.453617318679669</v>
+        <v>1.444836564470246</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.083762494245349</v>
@@ -8901,7 +8853,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.485608094625112</v>
+        <v>1.468132587388956</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.10588777642304</v>
@@ -8990,7 +8942,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490482790563795</v>
+        <v>1.469581543976748</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.073069520553243</v>
@@ -9079,7 +9031,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.497006963548128</v>
+        <v>1.475198407522733</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.068758913467507</v>
@@ -9168,7 +9120,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469007129975236</v>
+        <v>1.450130133571154</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.030897083622378</v>
@@ -9257,7 +9209,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460373002786027</v>
+        <v>1.443920970114838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.022709344273123</v>
@@ -9346,7 +9298,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501643342657924</v>
+        <v>1.484823132859052</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.011240343539761</v>
@@ -9435,7 +9387,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.517058926130262</v>
+        <v>1.498449856199126</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.215358424632</v>
@@ -9524,7 +9476,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.511562980015368</v>
+        <v>1.493348347373786</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.027128147351432</v>
@@ -9613,7 +9565,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.368550812745155</v>
+        <v>1.341556584633675</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.563067485289525</v>
@@ -9702,7 +9654,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.360099149671398</v>
+        <v>1.346726547365845</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.575032057564544</v>
@@ -9791,7 +9743,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.360481206661687</v>
+        <v>1.347564035510951</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.588161431801781</v>
@@ -9880,7 +9832,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.360628474336441</v>
+        <v>1.34738755210941</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.581568699690284</v>
@@ -9969,7 +9921,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.363067345525469</v>
+        <v>1.350504165077178</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.576665629179296</v>
@@ -10058,7 +10010,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.381961775181742</v>
+        <v>1.369039276142444</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.569864349315829</v>
@@ -10147,7 +10099,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.385012127216373</v>
+        <v>1.373067793875401</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.576160724190112</v>
@@ -10236,7 +10188,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.38827299689823</v>
+        <v>1.378082017485733</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.577874747646796</v>
@@ -10325,7 +10277,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.374373617001029</v>
+        <v>1.366498279888436</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.591941360783425</v>
@@ -10414,7 +10366,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.367446101533934</v>
+        <v>1.360173119490923</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.581482159287112</v>
@@ -10503,7 +10455,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.365599585083547</v>
+        <v>1.363727737742535</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.607098473303291</v>
@@ -10592,7 +10544,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.376034123501473</v>
+        <v>1.374206371447173</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.651499182284141</v>
@@ -10681,7 +10633,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.385658035688989</v>
+        <v>1.351435400009401</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.590960303928674</v>
@@ -10770,7 +10722,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.278707654172722</v>
+        <v>1.276844809726792</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.639465949445801</v>
@@ -10859,7 +10811,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.288925818768173</v>
+        <v>1.285608094087344</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.637888733524867</v>
@@ -11145,7 +11097,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.244286716121038</v>
+        <v>1.243780869723585</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.986390154435383</v>
@@ -11234,7 +11186,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.246576937279948</v>
+        <v>1.239075397441755</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.008001808906307</v>
@@ -11323,7 +11275,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.241861638336091</v>
+        <v>1.241904574367384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.022048614876465</v>
@@ -11412,7 +11364,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.245143296635667</v>
+        <v>1.247821274013725</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.038291361259672</v>
@@ -11501,7 +11453,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.264366099944562</v>
+        <v>1.269228925789941</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.046265989271374</v>
@@ -11590,7 +11542,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.261301260933278</v>
+        <v>1.262006431196616</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.047612126408146</v>
@@ -11679,7 +11631,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.25474269213579</v>
+        <v>1.260376995125178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.077277328385104</v>
@@ -11768,7 +11720,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.239517211512393</v>
+        <v>1.247643102404689</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.072452815263542</v>
@@ -11857,7 +11809,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.235288177911566</v>
+        <v>1.242287053890113</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.061484674605101</v>
@@ -11946,7 +11898,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.243687718652297</v>
+        <v>1.251246295946966</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.10593238321811</v>
@@ -12035,7 +11987,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.237218569500671</v>
+        <v>1.240940411652925</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.019757545222203</v>
@@ -12124,7 +12076,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.247759170664458</v>
+        <v>1.254497085740779</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.114358995680114</v>
@@ -12213,7 +12165,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.2557361799227</v>
+        <v>1.260025466058792</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.935583960730646</v>
@@ -12302,7 +12254,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.269161003497518</v>
+        <v>1.276462332891763</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.977264184507034</v>
@@ -12391,7 +12343,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.283871937826922</v>
+        <v>1.288604389023798</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.09209041745904</v>
@@ -12480,7 +12432,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.286011067204215</v>
+        <v>1.301180327704274</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.133016877715019</v>
@@ -12569,7 +12521,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.29133950109359</v>
+        <v>1.308554152472589</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.028376254901341</v>
@@ -12658,7 +12610,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.288893544404175</v>
+        <v>1.303405062150338</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.144851875032773</v>
@@ -12747,7 +12699,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.287942349571418</v>
+        <v>1.302769105181483</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.187068818293984</v>
@@ -12836,7 +12788,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.28306429076657</v>
+        <v>1.291316394773426</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.94354414355018</v>
@@ -12925,7 +12877,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.292125792025526</v>
+        <v>1.303404543252508</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.873074910725522</v>
@@ -13014,7 +12966,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.310638909832079</v>
+        <v>1.315513245325796</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.965636011912529</v>
@@ -13103,7 +13055,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.317595225432548</v>
+        <v>1.320260660236648</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.090798083305125</v>
@@ -13192,7 +13144,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.340790927611007</v>
+        <v>1.347933048746255</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.982763968167233</v>
@@ -13281,7 +13233,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.339266308682742</v>
+        <v>1.346109619725723</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.016468123690107</v>
@@ -13370,7 +13322,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.372670351673919</v>
+        <v>1.377028070396146</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.078138091324769</v>
@@ -13459,7 +13411,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.373436005598557</v>
+        <v>1.374324849390126</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.001939292795186</v>
@@ -13548,7 +13500,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.383250570044134</v>
+        <v>1.384097757735745</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.031102353999731</v>
@@ -13637,7 +13589,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.413723949250122</v>
+        <v>1.41107488492324</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.123257505639876</v>
@@ -13726,7 +13678,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.412511518403615</v>
+        <v>1.408711599011251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.053758148874128</v>
@@ -13815,7 +13767,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.410138676699011</v>
+        <v>1.40751426807761</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.025992442760872</v>
@@ -13904,7 +13856,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.411214929069579</v>
+        <v>1.408984448541201</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.059148368385403</v>
@@ -13993,7 +13945,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.409466403999614</v>
+        <v>1.40625444016025</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.04861525038045</v>
@@ -14082,7 +14034,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.439972122854554</v>
+        <v>1.433778173759765</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.002182698619035</v>
@@ -14171,7 +14123,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.461366488673434</v>
+        <v>1.456471726388188</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.168858272886915</v>
@@ -14260,7 +14212,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.422864118964819</v>
+        <v>1.420891719131438</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.939425549228609</v>
@@ -14349,7 +14301,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.3396443743283</v>
+        <v>1.338334660833247</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.899093901309211</v>
@@ -14438,7 +14390,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.335011589597969</v>
+        <v>1.336486974020796</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.908772357951455</v>
@@ -14527,7 +14479,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.341145966952125</v>
+        <v>1.343827120711351</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.978893722677072</v>
@@ -14616,7 +14568,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.344559324801079</v>
+        <v>1.34761959659349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.947763423319785</v>
@@ -14705,7 +14657,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.348066723716911</v>
+        <v>1.35322649318291</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.904830817957689</v>
@@ -14794,7 +14746,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.370699958633102</v>
+        <v>1.376936870222157</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.913205619510938</v>
@@ -14883,7 +14835,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.365011853500801</v>
+        <v>1.370402427324289</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.91148325443225</v>
@@ -14972,7 +14924,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.363688153107127</v>
+        <v>1.370046283763511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.893313863314057</v>
@@ -15061,7 +15013,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.355541420074665</v>
+        <v>1.364811748316582</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.932972577322394</v>
@@ -15150,7 +15102,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.362814737233241</v>
+        <v>1.369329152549752</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.919731511846127</v>
@@ -15239,7 +15191,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.329934780186698</v>
+        <v>1.333054972682736</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.973058693145592</v>
@@ -15328,7 +15280,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.323718537825385</v>
+        <v>1.322062922968724</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.009003750782757</v>
@@ -15417,7 +15369,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.327835642176915</v>
+        <v>1.326043125385294</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.804333108806032</v>
@@ -15506,7 +15458,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.265844752942556</v>
+        <v>1.269866350968902</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.856232951462909</v>
@@ -15595,7 +15547,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.294153167802771</v>
+        <v>1.297282737108228</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.75787188805459</v>
@@ -15881,7 +15833,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495431490164866</v>
+        <v>1.482334580827909</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.597207292914232</v>
@@ -15970,7 +15922,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.500204845160647</v>
+        <v>1.491191314068622</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.518231131541518</v>
@@ -16059,7 +16011,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501290744545792</v>
+        <v>1.496004018773841</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.61348375761293</v>
@@ -16148,7 +16100,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.511982780008776</v>
+        <v>1.507125719978106</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.675536244227013</v>
@@ -16237,7 +16189,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520495629390962</v>
+        <v>1.520292289661308</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.719816974961044</v>
@@ -16326,7 +16278,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53925817838566</v>
+        <v>1.525833108868311</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.756395616680981</v>
@@ -16415,7 +16367,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546294213625991</v>
+        <v>1.538457054320114</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.752586238184372</v>
@@ -16504,7 +16456,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.55034414972915</v>
+        <v>1.546617092927696</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.721196773185569</v>
@@ -16593,7 +16545,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52503492722796</v>
+        <v>1.523869478914989</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.831673736910899</v>
@@ -16682,7 +16634,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539763510696134</v>
+        <v>1.5344071166484</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.703448015368764</v>
@@ -16771,7 +16723,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535314335311714</v>
+        <v>1.529291197816255</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.83536222192528</v>
@@ -16860,7 +16812,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.544512223118533</v>
+        <v>1.540231884449754</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.688918555335716</v>
@@ -16949,7 +16901,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.548690061502315</v>
+        <v>1.543594300840844</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.913669862411435</v>
@@ -17038,7 +16990,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.564073640870005</v>
+        <v>1.559897625433603</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.795762882465535</v>
@@ -17127,7 +17079,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568985068339008</v>
+        <v>1.567320401077188</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.582902240861051</v>
@@ -17216,7 +17168,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.580304622091588</v>
+        <v>1.579288596346191</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.549972552096263</v>
@@ -17305,7 +17257,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581242766852754</v>
+        <v>1.574402139308138</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.693492208370142</v>
@@ -17394,7 +17346,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.573674055515334</v>
+        <v>1.56301485807069</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.743515132878993</v>
@@ -17483,7 +17435,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.564725691924987</v>
+        <v>1.552860688257735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.456677949068542</v>
@@ -17572,7 +17524,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.555249323508219</v>
+        <v>1.539568754349656</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.842297490795644</v>
@@ -17661,7 +17613,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.52738822851132</v>
+        <v>1.523148341406668</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.609861147364394</v>
@@ -17750,7 +17702,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.520933887865146</v>
+        <v>1.512758752427136</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.536104610264346</v>
@@ -17839,7 +17791,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.512908027025935</v>
+        <v>1.505212905574186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.618071658935676</v>
@@ -17928,7 +17880,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.542458583393455</v>
+        <v>1.534595871771133</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.154564184332893</v>
@@ -18017,7 +17969,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541174484094044</v>
+        <v>1.530425230814803</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.017665177215095</v>
@@ -18106,7 +18058,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.554194626884175</v>
+        <v>1.541147745472568</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.0596354744436</v>
@@ -18195,7 +18147,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.549763827389087</v>
+        <v>1.532804407881607</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.796150667069222</v>
@@ -18284,7 +18236,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556112583152069</v>
+        <v>1.537149702030734</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.952258962207714</v>
@@ -18373,7 +18325,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.552382969345939</v>
+        <v>1.527698101099366</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.872606660378453</v>
@@ -18462,7 +18414,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.546345661530399</v>
+        <v>1.518990393659585</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.919372101473983</v>
@@ -18551,7 +18503,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.535859619506685</v>
+        <v>1.50722811973707</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.893476441089667</v>
@@ -18640,7 +18592,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.527940850917178</v>
+        <v>1.493621216058794</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.991038230484015</v>
@@ -18729,7 +18681,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530614418194155</v>
+        <v>1.503249588116613</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.04310883484451</v>
@@ -18818,7 +18770,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.542365753486259</v>
+        <v>1.517742654873876</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.852843274123305</v>
@@ -18907,7 +18859,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.552073160097741</v>
+        <v>1.521200955147727</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.524701576961991</v>
@@ -18996,7 +18948,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.543186183480827</v>
+        <v>1.515575008394794</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.964959946454023</v>
@@ -19085,7 +19037,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.515916518212045</v>
+        <v>1.49681968180068</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.904374977092155</v>
@@ -19174,7 +19126,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.524081294585285</v>
+        <v>1.51084449728516</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.917718386208709</v>
@@ -19263,7 +19215,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523734860728543</v>
+        <v>1.504982494645168</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.896772148220006</v>
@@ -19352,7 +19304,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528838462667337</v>
+        <v>1.510443893960054</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.949918746875383</v>
@@ -19441,7 +19393,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532646045079476</v>
+        <v>1.514573501103861</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.905567110334325</v>
@@ -19530,7 +19482,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538965232639401</v>
+        <v>1.524038613189553</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.939691756220529</v>
@@ -19619,7 +19571,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.538003848423635</v>
+        <v>1.518537806623908</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.920813294022023</v>
@@ -19708,7 +19660,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.53992146627834</v>
+        <v>1.524361827295216</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.897126436183405</v>
@@ -19797,7 +19749,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.541160500114673</v>
+        <v>1.524022793916184</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.887588089288178</v>
@@ -19886,7 +19838,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.543681806735288</v>
+        <v>1.526570475051386</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.919619438613261</v>
@@ -19975,7 +19927,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.53393997712919</v>
+        <v>1.529198932536362</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.930051289289204</v>
@@ -20064,7 +20016,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.542308057144249</v>
+        <v>1.535609772918791</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.971892862866976</v>
@@ -20153,7 +20105,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542265480958883</v>
+        <v>1.542936755548505</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.774400466743338</v>
@@ -20242,7 +20194,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.468973130307218</v>
+        <v>1.484205067191863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.882268193724328</v>
@@ -20331,7 +20283,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.479438605244545</v>
+        <v>1.49383884090577</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.887821491853064</v>
@@ -20617,7 +20569,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.651916137678683</v>
+        <v>1.64325347498401</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.231810648622783</v>
@@ -20706,7 +20658,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.676571320258156</v>
+        <v>1.676083627052542</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.301421174079756</v>
@@ -20795,7 +20747,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.675327535192888</v>
+        <v>1.675212922415446</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.289737102999485</v>
@@ -20884,7 +20836,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720953738737958</v>
+        <v>1.718689222873827</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.421757710309454</v>
@@ -20973,7 +20925,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.746240381804685</v>
+        <v>1.755851684742321</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.406893386697181</v>
@@ -21062,7 +21014,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.75646839744829</v>
+        <v>1.756657901139609</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.454661698121971</v>
@@ -21151,7 +21103,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.753819716234245</v>
+        <v>1.758975940576644</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.47428411665666</v>
@@ -21240,7 +21192,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.764089819241295</v>
+        <v>1.768855342761277</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.514930058241386</v>
@@ -21329,7 +21281,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.765464926837903</v>
+        <v>1.771703114234071</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.504439058610491</v>
@@ -21418,7 +21370,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.770426594104286</v>
+        <v>1.775721392310582</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.416908539902198</v>
@@ -21507,7 +21459,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.77607057994379</v>
+        <v>1.781659429822425</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.36051523858556</v>
@@ -21596,7 +21548,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.783961759950191</v>
+        <v>1.780196587574764</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.358166694155751</v>
@@ -21685,7 +21637,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.779757380630634</v>
+        <v>1.777728264059256</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.484213369044562</v>
@@ -21774,7 +21726,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.781814189315146</v>
+        <v>1.774365649494055</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.416895894191594</v>
@@ -21863,7 +21815,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.783812389768105</v>
+        <v>1.776483680374877</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.43525210859287</v>
@@ -21952,7 +21904,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.79436052085384</v>
+        <v>1.780618567076771</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.182272590928248</v>
@@ -22041,7 +21993,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.766556492360134</v>
+        <v>1.751509873234748</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.32061147128966</v>
@@ -22130,7 +22082,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.765820537356654</v>
+        <v>1.7469376530367</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.333717402185559</v>
@@ -22219,7 +22171,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.755818605477857</v>
+        <v>1.726877949597918</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.124712775538662</v>
@@ -22308,7 +22260,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.699840237781622</v>
+        <v>1.652914249741741</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.754191814526336</v>
@@ -22397,7 +22349,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690595735782301</v>
+        <v>1.652210395006741</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.051423548561263</v>
@@ -22486,7 +22438,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.686952455304673</v>
+        <v>1.638702165161699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.717099123179417</v>
@@ -22575,7 +22527,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.688451369723587</v>
+        <v>1.633128192671104</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.190687715536544</v>
@@ -22664,7 +22616,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682823416744134</v>
+        <v>1.624998361650796</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.530892901863729</v>
@@ -22753,7 +22705,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.677302036591412</v>
+        <v>1.624776433396339</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.277394167966015</v>
@@ -22842,7 +22794,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.674982605223294</v>
+        <v>1.622104267200949</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.383529602775136</v>
@@ -22931,7 +22883,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.667610724705088</v>
+        <v>1.624938135455376</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.455793055907675</v>
@@ -23020,7 +22972,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632233900241301</v>
+        <v>1.598757505706998</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.553659872504757</v>
@@ -23109,7 +23061,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.61766577035638</v>
+        <v>1.589518929478425</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.399628643330112</v>
@@ -23198,7 +23150,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.623297348445921</v>
+        <v>1.594265385684499</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.491276020621016</v>
@@ -23287,7 +23239,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.635748095381659</v>
+        <v>1.604164145753694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.533807202738382</v>
@@ -23376,7 +23328,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.627012708530177</v>
+        <v>1.59379681018136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.46454216241702</v>
@@ -23465,7 +23417,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.62484026498194</v>
+        <v>1.591588272497688</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.407611195837554</v>
@@ -23554,7 +23506,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.630392723531567</v>
+        <v>1.59424505526834</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.466296722108068</v>
@@ -23643,7 +23595,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630572291917365</v>
+        <v>1.599889851338105</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.622742676148002</v>
@@ -23732,7 +23684,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.629335616012919</v>
+        <v>1.598853166320484</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.479914061534621</v>
@@ -23821,7 +23773,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.56288227778218</v>
+        <v>1.54258728085714</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.856984875239743</v>
@@ -23910,7 +23862,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527700535469843</v>
+        <v>1.516767903281827</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.887833563331728</v>
@@ -23999,7 +23951,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.528208154766367</v>
+        <v>1.516370251759848</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.871380317966495</v>
@@ -24088,7 +24040,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528255108038399</v>
+        <v>1.515031752696208</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.884478492940472</v>
@@ -24177,7 +24129,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.533740955504724</v>
+        <v>1.517839266378884</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.866090029897268</v>
@@ -24266,7 +24218,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529843788142259</v>
+        <v>1.50996756037025</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.884592888610812</v>
@@ -24355,7 +24307,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563748621647852</v>
+        <v>1.536536837133226</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.851562098648239</v>
@@ -24444,7 +24396,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.563135156300429</v>
+        <v>1.538238959898434</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.862749524348048</v>
@@ -24533,7 +24485,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556012530201843</v>
+        <v>1.535233295412316</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.861953945548581</v>
@@ -24622,7 +24574,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.545704902003251</v>
+        <v>1.527105840330834</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.872517645879334</v>
@@ -24711,7 +24663,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.536368856892966</v>
+        <v>1.519447239358087</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.863369722193752</v>
@@ -24800,7 +24752,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544871144136529</v>
+        <v>1.531373228849243</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.879532572286833</v>
@@ -24889,7 +24841,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.537867668559691</v>
+        <v>1.529285748168635</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.831926438946164</v>
@@ -24978,7 +24930,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.457854907610502</v>
+        <v>1.465484216536332</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.906211781792072</v>
@@ -25067,7 +25019,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.456208256893988</v>
+        <v>1.462169837794029</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.897078986981614</v>
@@ -25353,7 +25305,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.507702494012735</v>
+        <v>1.534978534370055</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.26732748933339</v>
@@ -25442,7 +25394,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.557593892989641</v>
+        <v>1.586225413331985</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.4211406032212</v>
@@ -25531,7 +25483,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.563574244761168</v>
+        <v>1.592830306665821</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.39792395447355</v>
@@ -25620,7 +25572,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617489837707128</v>
+        <v>1.646396480927451</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.557204911484158</v>
@@ -25709,7 +25661,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662201385650685</v>
+        <v>1.707284576029804</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.416382292094598</v>
@@ -25798,7 +25750,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.68652513557462</v>
+        <v>1.72832453924339</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.464645227154558</v>
@@ -25887,7 +25839,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.697006122773917</v>
+        <v>1.736975723821197</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.508335983070671</v>
@@ -25976,7 +25928,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.700745029336217</v>
+        <v>1.738663253490517</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.542774886041541</v>
@@ -26065,7 +26017,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.699904040598009</v>
+        <v>1.738911099153692</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.533389124261362</v>
@@ -26154,7 +26106,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.720619008460819</v>
+        <v>1.756961802410558</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.531596057240718</v>
@@ -26243,7 +26195,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.708736253920177</v>
+        <v>1.745056989988407</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.481012064790383</v>
@@ -26332,7 +26284,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.703887061430405</v>
+        <v>1.740883707719799</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.511835899675301</v>
@@ -26421,7 +26373,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.707623811307707</v>
+        <v>1.743817524163513</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.571323972098285</v>
@@ -26510,7 +26462,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.717280610364796</v>
+        <v>1.752753827493901</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.519111751413499</v>
@@ -26599,7 +26551,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.717823516750338</v>
+        <v>1.754012334716574</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.329691363733005</v>
@@ -26688,7 +26640,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.733383306988577</v>
+        <v>1.762378737493694</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.22397210024552</v>
@@ -26777,7 +26729,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.698418644574833</v>
+        <v>1.731662378032845</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.251627272323053</v>
@@ -26866,7 +26818,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.694121159142628</v>
+        <v>1.727270211755538</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.240756728730931</v>
@@ -26955,7 +26907,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.663170044968002</v>
+        <v>1.691387957476091</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.948057956021156</v>
@@ -27044,7 +26996,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571652909928275</v>
+        <v>1.578752460374834</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.677360077066474</v>
@@ -27133,7 +27085,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.545074620342887</v>
+        <v>1.561743435730095</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.608565185204466</v>
@@ -27222,7 +27174,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.507359365479803</v>
+        <v>1.521668193171118</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.55598832373232</v>
@@ -27311,7 +27263,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.500247973600173</v>
+        <v>1.511012854204827</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.569112903454354</v>
@@ -27400,7 +27352,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.500650859096764</v>
+        <v>1.508106654054054</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.445406753304031</v>
@@ -27489,7 +27441,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.493019237482967</v>
+        <v>1.499061833405317</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.467790704772515</v>
@@ -27578,7 +27530,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.503933042665943</v>
+        <v>1.511870344602584</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.544280067330932</v>
@@ -27667,7 +27619,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.491113394866691</v>
+        <v>1.499107134313574</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.873580092091645</v>
@@ -27756,7 +27708,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.490758727134756</v>
+        <v>1.49768820093403</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.831325075687276</v>
@@ -27845,7 +27797,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.497841146050909</v>
+        <v>1.506521483368805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.936061229157502</v>
@@ -27934,7 +27886,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.496370835032</v>
+        <v>1.504196598704436</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.988641080442397</v>
@@ -28023,7 +27975,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.49451317690881</v>
+        <v>1.501769212580871</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.042103829282643</v>
@@ -28112,7 +28064,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.482220930937213</v>
+        <v>1.487316376152825</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.924835336491601</v>
@@ -28201,7 +28153,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.487182962636156</v>
+        <v>1.487172407451308</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.936982489719558</v>
@@ -28290,7 +28242,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.499333965914109</v>
+        <v>1.489073988596703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.038017300696454</v>
@@ -28379,7 +28331,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.490862962152162</v>
+        <v>1.481524676189147</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.50640792960985</v>
@@ -28468,7 +28420,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.484196458974931</v>
+        <v>1.477453300721428</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.697929748806671</v>
@@ -28557,7 +28509,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.495613812129937</v>
+        <v>1.495023607083305</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.496160627098938</v>
@@ -28646,7 +28598,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.428208476527895</v>
+        <v>1.425810190271274</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.040206764667063</v>
@@ -28735,7 +28687,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.427915078487467</v>
+        <v>1.426870569127946</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.047137328895573</v>
@@ -28824,7 +28776,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.431359733350183</v>
+        <v>1.430098459206355</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.9724967016107</v>
@@ -28913,7 +28865,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.437589195040158</v>
+        <v>1.435857671778085</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.030278538661189</v>
@@ -29002,7 +28954,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444747535400086</v>
+        <v>1.44406843002082</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.02268043647061</v>
@@ -29091,7 +29043,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45397283471963</v>
+        <v>1.452531494455031</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.020221555698373</v>
@@ -29180,7 +29132,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.460671330794779</v>
+        <v>1.459377991135982</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.013750076477242</v>
@@ -29269,7 +29221,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456318074766821</v>
+        <v>1.455953191760772</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.979456355049174</v>
@@ -29358,7 +29310,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.457425067171231</v>
+        <v>1.458821270679732</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.000086793096101</v>
@@ -29447,7 +29399,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.437426469770547</v>
+        <v>1.446028446691763</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.035338096231735</v>
@@ -29536,7 +29488,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.419823579401289</v>
+        <v>1.430041113514995</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.065892695666676</v>
@@ -29625,7 +29577,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.429604028879882</v>
+        <v>1.444630053097597</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.015527306715975</v>
@@ -29714,7 +29666,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.323561368126874</v>
+        <v>1.345654094018073</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.831985290304712</v>
@@ -29803,7 +29755,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.335053098260324</v>
+        <v>1.356137690134729</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.801712289183525</v>
@@ -30089,7 +30041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.227421459924485</v>
+        <v>1.235312097787816</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.154426995007479</v>
@@ -30178,7 +30130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.256507295856261</v>
+        <v>1.268041607848021</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.248351076677492</v>
@@ -30267,7 +30219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.251036834778091</v>
+        <v>1.269205204505838</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.219660134134541</v>
@@ -30356,7 +30308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.266216966970038</v>
+        <v>1.287077828085052</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.274805166200394</v>
@@ -30445,7 +30397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.311536357836021</v>
+        <v>1.342239731743243</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.469771136477041</v>
@@ -30534,7 +30486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.318812773841282</v>
+        <v>1.344374797735435</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.333456448184859</v>
@@ -30623,7 +30575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.311145861686879</v>
+        <v>1.341908578520326</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.366329614447733</v>
@@ -30712,7 +30664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.302050929879098</v>
+        <v>1.335441400242309</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.276275837742243</v>
@@ -30801,7 +30753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.297432694327382</v>
+        <v>1.329274178128361</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.166656929506726</v>
@@ -30890,7 +30842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.308509297821031</v>
+        <v>1.341284038749509</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.331231799358998</v>
@@ -30979,7 +30931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.301072394012663</v>
+        <v>1.33296604814396</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.247449115045134</v>
@@ -31068,7 +31020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.310697439424077</v>
+        <v>1.342052183113461</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.461853126597814</v>
@@ -31157,7 +31109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.32070346717214</v>
+        <v>1.349004533904487</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.065325578442656</v>
@@ -31246,7 +31198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.334654045584095</v>
+        <v>1.368557411943167</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.202559849351577</v>
@@ -31335,7 +31287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.345874371305829</v>
+        <v>1.379041673192733</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.107870537268019</v>
@@ -31424,7 +31376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.362675216197191</v>
+        <v>1.397593556633418</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.437304195267747</v>
@@ -31513,7 +31465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.350600519010221</v>
+        <v>1.377414099706723</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.091040834425954</v>
@@ -31602,7 +31554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.349344836014628</v>
+        <v>1.374308762852887</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.198194795229854</v>
@@ -31691,7 +31643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.340384506093425</v>
+        <v>1.362584440047571</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.290914447776961</v>
@@ -31780,7 +31732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.300957408291029</v>
+        <v>1.308728560304321</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.085289227012975</v>
@@ -31869,7 +31821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.315720878779399</v>
+        <v>1.325231781474843</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.870089012935099</v>
@@ -31958,7 +31910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.335669775227303</v>
+        <v>1.337908380424679</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.878295121580389</v>
@@ -32047,7 +31999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.329011222975803</v>
+        <v>1.332379136321824</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.981340579833798</v>
@@ -32136,7 +32088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.357526498400451</v>
+        <v>1.36042956581127</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.9889210820331</v>
@@ -32225,7 +32177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.358165590837315</v>
+        <v>1.360109994020443</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.028202880803892</v>
@@ -32314,7 +32266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.407166028935982</v>
+        <v>1.40294256906296</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.99700338494625</v>
@@ -32403,7 +32355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.426149277083701</v>
+        <v>1.418359920035466</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.959723245647907</v>
@@ -32492,7 +32444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.428575209076687</v>
+        <v>1.419571423343333</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.064158105914752</v>
@@ -32581,7 +32533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.483358937945234</v>
+        <v>1.472642350749769</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.220328611231569</v>
@@ -32670,7 +32622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500236157351297</v>
+        <v>1.489267633477156</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.147433896346961</v>
@@ -32759,7 +32711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.51017585967452</v>
+        <v>1.499952438698908</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.193620182339226</v>
@@ -32848,7 +32800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.5008835718434</v>
+        <v>1.495754683926682</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.152577951609105</v>
@@ -32937,7 +32889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.49965031824823</v>
+        <v>1.493075097964149</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.165631737263652</v>
@@ -33026,7 +32978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.529089435869608</v>
+        <v>1.521451548919581</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.141927911644434</v>
@@ -33115,7 +33067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.555043721336811</v>
+        <v>1.546913115382702</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.356561442574472</v>
@@ -33204,7 +33156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548267121076172</v>
+        <v>1.545332241789305</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.166741105973773</v>
@@ -33293,7 +33245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.512334695168414</v>
+        <v>1.516673608449556</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.010657674468453</v>
@@ -33382,7 +33334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.479171421915902</v>
+        <v>1.493274917067509</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.052945938491173</v>
@@ -33471,7 +33423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.4784831791811</v>
+        <v>1.494914964940485</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.037196886096537</v>
@@ -33560,7 +33512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478005387809381</v>
+        <v>1.496706211382744</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.036912871726108</v>
@@ -33649,7 +33601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.475187075099171</v>
+        <v>1.496456508833048</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.043772483010853</v>
@@ -33738,7 +33690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.49149816507042</v>
+        <v>1.512728689475908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.051676505367041</v>
@@ -33827,7 +33779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50068566868467</v>
+        <v>1.520470814806322</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.999191326550743</v>
@@ -33916,7 +33868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.499607787680513</v>
+        <v>1.517760063913043</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.034743744457819</v>
@@ -34005,7 +33957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.477386360169833</v>
+        <v>1.493597074220331</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.021894893188994</v>
@@ -34094,7 +34046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.466580295357833</v>
+        <v>1.483314583474241</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.032840273492623</v>
@@ -34183,7 +34135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.439075676577322</v>
+        <v>1.45898054432302</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.039831706718198</v>
@@ -34272,7 +34224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.427951662055689</v>
+        <v>1.448577451570628</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.044044211359578</v>
@@ -34361,7 +34313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.465860755823408</v>
+        <v>1.48253245738196</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.802114876394079</v>
@@ -34450,7 +34402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.396880372585429</v>
+        <v>1.427501999945543</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.866180102102375</v>
@@ -34539,7 +34491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.410143902633439</v>
+        <v>1.441232723711751</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.882486497423763</v>
